--- a/src/main/resources/단어.xlsx
+++ b/src/main/resources/단어.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyeonsookim/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\My\Desktop\CAU\25-1\캡스톤\Capstone-Back-End\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F971007-1B74-D34D-AC59-B3E0950B9116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0F173D-82EB-48C0-8C5B-E2227CF91ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{4DC7C9BD-D929-3045-B65E-3994D7110C9F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4DC7C9BD-D929-3045-B65E-3994D7110C9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -442,403 +442,403 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>「명사」 기관이나 조직체 따위의 중심이 되는 자리에서 책임을 맡거나 지도하는 사람.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 「1」 직접 관계가 없는 남의 일에 부당하게 참견함.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 양이나 수치가 줆. 또는 양이나 수치를 줄임.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 ‘가지가지’의 준말.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 아주 많은 액수의 돈.≒거관.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 「1」 사회적 지위가 비슷한 사람들의 층.≒층.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 「1」 현상이나 사상, 행동 따위가 어떤 방향으로 기울어짐.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 산업이나 교통의 발달에 따라 사람이나 생물이 입게 되는 여러 가지 피해. 자동차의 매연, 공장의 폐수, 여러 종류의 쓰레기 따위로 인하여 공기와 물이 더럽혀지고 자연환경이 파괴되는 문제 따위를 이른다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 어떤 일에 관련이 있는 사람.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 「1」 국가적이나 사회적으로 인정된 공적인 방식.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 원료를 인력이나 기계력으로 가공하여 유용한 물자를 만드는 산업. 예전에는 주로 가내 공업이었으나 기계의 발달에 따라 대규모로 되었다. 제조업, 건설업 따위의 제이차 산업을 이르는 말이다.≒공.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 어떤 것에 마음이 끌려 주의를 기울임. 또는 그런 마음이나 주의.=관심.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 학교의 안.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 어떤 일을 여럿이 나누어서 차례에 따라 맡아 함. 또는 그 차례에 따라 일을 맡은 사람.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「의존 명사」 학교의 수업 시간을 세는 단위. 흔히 40분 또는 45분, 50분 따위로 정한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 「1」『교육』 학생을 가르치는 직업이나 직무.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 「1」 행동이나 의사의 자유를 제한하거나 속박함.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 나라의 역사.≒국승, 국지.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 집으로 돌아가거나 돌아옴.≒귀서.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 「1」 본보기가 될 만한 틀이나 제도.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 「1」 풀이나 나무 따위의 아랫동아리. 또는 그것들을 베고 남은 아랫동아리.=그루터기.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 기이한 소리.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 현재 사회를 이끌어 가는 나이가 든 세대.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「부사」 몸을 둔하고 느리게 조금 움직이는 모양. ‘곰작’보다 아주 센 느낌을 준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 「1」 화초의 씨앗.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 어떤 지역의 남쪽 부분.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 「1」 내년의 다음다음 해.≒명후년, 후후년.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 늦은 가을. 주로 음력 9월을 이른다.≒계추, 만추, 모추, 서릿가을, 심추, 추만.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 환히 밝은 낮.≒백일, 백주, 적일백천.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 돈이나 물건 따위를 빌려주거나 빌림.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「동사」 식었거나 찬 것을 덥게 하다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 공공시설에서 손님이 기다리며 머물 수 있도록 마련한 곳.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 다른 것을 모방함이 없이 새로운 것을 처음으로 만들어 내거나 생각해 내는 것.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 「1」 한 부모에게서 태어난 형제자매.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「동사」 같은 말이나 일이 자꾸 반복되다. 또는 같은 사태가 자꾸 일어나다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 「1」 어떤 작용을 한쪽에서 다른 쪽으로 전달하는 물체. 또는 그런 수단.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 「1」 책이나 논문 따위의 첫머리에 내용이나 목적 따위를 간략하게 적은 글.≒두서, 머리글, 서기, 서문, 서언, 서제.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 병을 잘 고쳐 이름난 의원이나 의사.≒명의사, 선의.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 「1」 구부러지거나 꺾어져 돌아간 자리.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 바뀌어 달라짐.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 「1」 일정하게 한정된 영역.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 기관, 기업, 조직 따위에서 일이나 사업의 체계에 따라 나뉘어 있는, 사무의 각 부문.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 어떤 내용이나 사실을 옳거나 그러하다고 인정하지 아니함.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「부사」 그 수량에 지나지 아니한 상태임을 이르는 말.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「동사」 「1」 놓치지 않도록 단단히 쥐다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 「1」 슬피 욺. 또는 그런 울음소리.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「형용사」 보잘것없이 작거나 적다.≒사세하다, 소쇄하다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「동사」 「1」 몸가짐이나 언행을 조심하다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 「1」 강이나 내의 발원지에 가까운 부분.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 조사를 하거나 통계 자료 따위를 얻기 위하여 어떤 주제에 대하여 문제를 내어 물음. 또는 그 문제.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 일정한 단체나 기관에 딸림. 또는 그 딸린 곳.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 「1」 작은 일.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「수사」 만의 여러 배가 되는 수.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「부사」 일시적이거나 부분적이 아니라 전적으로. 또는 순전하게.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 직업이나 영업의 종류.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 『지명』 조령(鳥嶺) 남쪽이라는 뜻에서, 경상남도와 경상북도를 이르는 말. 삼남(三南)의 하나이다.≒교남.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 올해 가을.≒금추.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「관형사」 이런저런 여러 가지의.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 차를 따라 마시는 잔. 찻종보다 높이가 낮고 아가리가 더 벌어졌다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 으뜸으로 삼음.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 「1」 한 시대나 한 세대 전체.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 「1」 사람의 씨.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 「1」 회사 따위에 취직하여 들어감.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 「1」『문학』 문예 양식의 갈래. 특히 문학에서는 서정, 서사, 극 또는 시, 소설, 희곡, 수필, 평론 따위로 나눈 기본형을 이른다.≒갈래.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 「1」 비가 오는 날씨.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 서로 잘 어울림.≒조균, 해화.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 「1」『철학』 인간과 세계에 대한 근본 원리와 삶의 본질 따위를 연구하는 학문. 흔히 인식, 존재, 가치의 세 기준에 따라 하위 분야를 나눌 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 나라의 국경 밖으로 나감.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 사물의 관련이나 일의 결과가 반드시 그렇게 될 수밖에 없음.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 널리 알림. 또는 그 소식이나 보도.≒광보.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 일정한 절차를 거쳐서 서로 만나 의견이나 견해 따위를 밝힘. 또는 그런 모임.≒회오.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 「1」 집회나 회의 따위를 목적으로 지은 건물.≒회당.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 「1」 일정한 방세와 식비를 내고 남의 집에 머물면서 숙식함. 또는 그런 집.≒사관, 사관.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 「1」 후추나무의 열매. 음식의 양념으로 쓴다.≒호초.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 「1」『서비스업』 규격을 한정하고 우편 요금을 냈다는 표시로 증표(證標)를 인쇄한 편지 용지. 과학 기술 정보 통신부에서 발행하며 통상 엽서, 왕복 엽서, 봉함엽서 따위가 있다.=우편엽서.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 「1」 백 년을 단위로 하는 기간.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 ‘성명’의 높임말.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 「1」 세 날.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 내일의 다음 날.≒내일모레, 명후일, 재명일.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 「1」 지금 지나가고 있는 이날.=오늘.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 사물이나 사실이 전하여 내려온 그 처음.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 「1」 일정한 자격을 얻기 위하여 단체나 학교 따위에 문서나 이름을 올림.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 「1」 과학 이론을 실제로 적용하여 사물을 인간 생활에 유용하도록 가공하는 수단.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 『의학』 낮 시간 동안 갑자기 잠에 빠져드는 수면 발작, 수면 마비 등의 증상을 보이는 질환.=졸음증.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 「1」 기업이나 사업 따위를 관리하고 운영함.≒경기.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 마주 대하고 있는 저편.≒월변, 월편.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 「1」 토지나 천연자원 따위를 유용하게 만듦.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 「1」 봄·여름·가을·겨울의 네 철.≒사계, 사계절, 사서, 사시, 사시절, 사절.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 닭이나 날짐승의 먹이.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 자연적인 재해나 사회적인 피해를 당하여 어려운 처지에 있는 사람을 도와줌.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 「1」 물보다 가볍고 불을 붙이면 잘 타는 액체. 약간 끈기가 있고 미끈미끈하며 물에 잘 풀리지 않는다. 동물의 살, 뼈, 가죽에 엉기어 있기도 하고 식물의 씨앗에서 짜내기도 하는데, 원료에 따라서 빛깔과 성질이 다르고 쓰임새가 매우 다양하다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 무명실로 짠 피륙.=무명.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 철재로 조립하여 높이 세운 구조물.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 「1」 어떤 일이 아직 그렇게 되지 않은 때.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 「1」 땅의 위.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 속에 간직하고 있는 든든한 힘.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 「1」 현실을 판단하여 자기의 입장이나 능력 따위를 스스로 깨달음.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「명사」 살갗을 아름답고 희게 함.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>고려</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>「명사」 생각하고 헤아려 봄.≒고사.</t>
+    <t>기관이나 조직체 따위의 중심이 되는 자리에서 책임을 맡거나 지도하는 사람.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직접 관계가 없는 남의 일에 부당하게 참견함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양이나 수치를 줄임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘가지가지’의 준말</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아주 많은 액수의 돈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사회적 지위가 비슷한 사람들의 층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현상이나 사상, 행동 따위가 어떤 방향으로 기울어짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산업이나 교통의 발달에 따라 사람이나 생물이 입게 되는 여러 가지 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 일에 관련이 있는 사람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가적이나 사회적으로 인정된 공적인 방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원료를 인력이나 기계력으로 가공하여 유용한 물자를 만드는 산업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 것에 마음이 끌려 주의를 기울임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교의 안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 일을 여럿이 나누어서 차례에 따라 맡아 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교의 수업 시간을 세는 단위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생을 가르치는 직업이나 직무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행동이나 의사의 자유를 제한하거나 속박함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나라의 역사.≒국승, 국지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집으로 돌아가거나 돌아옴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본보기가 될 만한 틀이나 제도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풀이나 나무 따위의 아랫동아리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기이한 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 사회를 이끌어 가는 나이가 든 세대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸을 둔하고 느리게 조금 움직이는 모양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화초의 씨앗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 지역의 남쪽 부분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내년의 다음다음 해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>늦은 가을. 주로 음력 9월을 이른다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환히 밝은 낮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈이나 물건 따위를 빌려주거나 빌림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식었거나 찬 것을 덥게 하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공공시설에서 손님이 기다리며 머물 수 있도록 마련한 곳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 것을 모방함이 없이 새로운 것을 처음으로 만들어 내거나 생각해 내는 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한 부모에게서 태어난 형제자매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>같은 말이나 일이 자꾸 반복되다. 또는 같은 사태가 자꾸 일어나다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 작용을 한쪽에서 다른 쪽으로 전달하는 물체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>책이나 논문 따위의 첫머리에 내용이나 목적 따위를 간략하게 적은 글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병을 잘 고쳐 이름난 의원이나 의사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구부러지거나 꺾어져 돌아간 자리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바뀌어 달라짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정하게 한정된 영역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기관, 기업, 조직 따위에서 일이나 사업의 체계에 따라 나뉘어 있는, 사무의 각 부문.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 내용이나 사실을 옳거나 그러하다고 인정하지 아니함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 수량에 지나지 아니한 상태임을 이르는 말</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>놓치지 않도록 단단히 쥐다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬피 우는 울음소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보잘것없이 작거나 적다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸가짐이나 언행을 조심하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강이나 내의 발원지에 가까운 부분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조사를 하거나 통계 자료 따위를 얻기 위하여 어떤 주제에 대하여 문제를 내어 물음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정한 단체나 기관에 딸림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작은 일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만의 여러 배가 되는 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일시적이거나 부분적이 아니라 전적으로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직업이나 영업의 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조령(鳥嶺) 남쪽이라는 뜻에서, 경상남도와 경상북도를 이르는 말</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올해 가을</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이런저런 여러 가지의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차를 따라 마시는 잔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으뜸으로 삼음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한 시대나 한 세대 전체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사람의 씨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사 따위에 취직하여 들어감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문예 양식의 갈래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비가 오는 날씨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서로 잘 어울림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간과 세계에 대한 근본 원리와 삶의 본질 따위를 연구하는 학문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나라의 국경 밖으로 나감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사물의 관련이나 일의 결과가 반드시 그렇게 될 수밖에 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>널리 알림. 또는 그 소식이나 보도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정한 절차를 거쳐서 서로 만나 의견이나 견해 따위를 밝힘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집회나 회의 따위를 목적으로 지은 건물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정한 방세와 식비를 내고 남의 집에 머물면서 숙식함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후추나무의 열매. 음식의 양념으로 쓴다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>규격을 한정하고 우편 요금을 냈다는 표시로 증표를 인쇄한 편지 용지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백 년을 단위로 하는 기간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘성명’의 높임말</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세 날</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내일의 다음 날</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 지나가고 있는 이날</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사물이나 사실이 전하여 내려온 그 처음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정한 자격을 얻기 위하여 단체나 학교 따위에 문서나 이름을 올림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과학 이론을 실제로 적용하여 사물을 인간 생활에 유용하도록 가공하는 수단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낮 시간 동안 갑자기 잠에 빠져드는 수면 발작, 수면 마비 등의 증상을 보이는 질환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업이나 사업 따위를 관리하고 운영함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마주 대하고 있는 저편</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토지나 천연자원 따위를 유용하게 만듦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봄·여름·가을·겨울의 네 철</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭이나 날짐승의 먹이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자연적인 재해나 사회적인 피해를 당하여 어려운 처지에 있는 사람을 도와줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물보다 가볍고 불을 붙이면 잘 타는 액체.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무명실로 짠 피륙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철재로 조립하여 높이 세운 구조물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 일이 아직 그렇게 되지 않은 때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>땅의 위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속에 간직하고 있는 든든한 힘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현실을 판단하여 자기의 입장이나 능력 따위를 스스로 깨달음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살갗을 아름답고 희게 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생각하고 헤아려 봄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -846,7 +846,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1252,16 +1252,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42642CF7-0A1A-3045-819A-63DDB3B17F5E}">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="40.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1272,34 +1272,34 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1309,12 +1309,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -1324,12 +1324,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1339,573 +1339,573 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C18">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C23">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C24">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C31">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C33">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C37">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C38">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C43">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C44">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C46">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C47">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C48">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C49">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C50">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C51">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C52">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C53">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C54">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C55">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C57">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -1915,12 +1915,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -1930,12 +1930,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -1945,438 +1945,438 @@
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C61">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C62">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C63">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C64">
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C71">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C72">
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C73">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C74">
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C76">
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C77">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C78">
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C79">
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C80">
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C81">
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C83">
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C84">
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C85">
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C86">
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C88">
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C90">
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C91">
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C92">
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C93">
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C94">
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C95">
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C97">
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C98">
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C99">
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>199</v>
+        <v>101</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>200</v>
